--- a/publish-fsh-generated/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/publish-fsh-generated/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T15:29:58+00:00</t>
+    <t>2025-12-11T15:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publish-fsh-generated/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/publish-fsh-generated/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T15:36:33+00:00</t>
+    <t>2025-12-11T15:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
